--- a/メッセージ.xlsx
+++ b/メッセージ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gamedev\Onigokko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A89283-0D82-48CF-AE23-FB2F9EE1B6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD4F61-611D-4450-BD60-ECFDEE4C1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D47C8A7-677A-43BA-A075-65C5AA973B76}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>宛先タグ</t>
     <rPh sb="0" eb="2">
@@ -310,6 +310,17 @@
   </si>
   <si>
     <t>collision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向き&lt;string&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1508A9C-A972-43C8-96F0-46675565C0EB}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -931,16 +942,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -948,16 +953,16 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -965,25 +970,58 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J17" xr:uid="{E1508A9C-A972-43C8-96F0-46675565C0EB}"/>
+  <autoFilter ref="A1:J18" xr:uid="{E1508A9C-A972-43C8-96F0-46675565C0EB}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/メッセージ.xlsx
+++ b/メッセージ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gamedev\Onigokko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD4F61-611D-4450-BD60-ECFDEE4C1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF942A-8C99-4B34-84B1-31F4ADFD2EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D47C8A7-677A-43BA-A075-65C5AA973B76}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>宛先タグ</t>
     <rPh sb="0" eb="2">
@@ -321,6 +321,10 @@
   </si>
   <si>
     <t>player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -694,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1508A9C-A972-43C8-96F0-46675565C0EB}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1020,6 +1024,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J18" xr:uid="{E1508A9C-A972-43C8-96F0-46675565C0EB}"/>
   <phoneticPr fontId="1"/>

--- a/メッセージ.xlsx
+++ b/メッセージ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gamedev\Onigokko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF942A-8C99-4B34-84B1-31F4ADFD2EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245B81A-093A-419B-B399-00C3362AF61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D47C8A7-677A-43BA-A075-65C5AA973B76}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>宛先タグ</t>
     <rPh sb="0" eb="2">
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>引数5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -698,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1508A9C-A972-43C8-96F0-46675565C0EB}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -713,11 +709,10 @@
     <col min="6" max="6" width="20.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,303 +738,300 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J18" xr:uid="{E1508A9C-A972-43C8-96F0-46675565C0EB}"/>
+  <autoFilter ref="A1:I18" xr:uid="{E1508A9C-A972-43C8-96F0-46675565C0EB}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
